--- a/TestNGTutorial/TestData/testdata.xlsx
+++ b/TestNGTutorial/TestData/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>TestData1</t>
   </si>
@@ -37,12 +37,19 @@
   </si>
   <si>
     <t>Delhi,India</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -397,10 +404,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="11.88671875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -428,6 +435,9 @@
       </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
